--- a/Public_data/Exports_CG_part1/actor_roles_summary.xlsx
+++ b/Public_data/Exports_CG_part1/actor_roles_summary.xlsx
@@ -14,48 +14,585 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Who</t>
   </si>
   <si>
+    <t>Afzender</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Bemiddelaar, Bemiddelaar, Ontvanger, Verwerker</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Herkomst</t>
+  </si>
+  <si>
+    <t>Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Herkomst, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Herkomst, Ontvanger, Verwerker</t>
+  </si>
+  <si>
     <t>Inzamelaar</t>
   </si>
   <si>
-    <t>Inzamelaar, Ontvanger</t>
-  </si>
-  <si>
-    <t>Inzamelaar, Ontvanger, Verwerker</t>
+    <t>Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
   </si>
   <si>
     <t>Ontdoener</t>
   </si>
   <si>
-    <t>Ontdoener, Inzamelaar</t>
-  </si>
-  <si>
-    <t>Ontdoener, Inzamelaar, Ontvanger</t>
-  </si>
-  <si>
-    <t>Ontdoener, Inzamelaar, Ontvanger, Verwerker</t>
-  </si>
-  <si>
-    <t>Ontdoener, Ontvanger</t>
-  </si>
-  <si>
-    <t>Ontdoener, Ontvanger, Verwerker</t>
-  </si>
-  <si>
-    <t>Ontdoener, Verwerker</t>
+    <t>Ontdoener, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Afzender, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Bemiddelaar, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Bemiddelaar, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Ontvanger, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Herkomst, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Ontvanger, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Ontvanger</t>
   </si>
   <si>
+    <t>Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontvanger, Verwerker</t>
   </si>
   <si>
+    <t>Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Verwerker</t>
+  </si>
+  <si>
+    <t>Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
 </sst>
 </file>
@@ -413,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -440,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -448,7 +985,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -456,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -464,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>170</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -472,7 +1009,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -480,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -488,7 +1025,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -496,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -504,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -512,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -520,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -528,7 +1065,1439 @@
         <v>13</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Public_data/Exports_CG_part1/actor_roles_summary.xlsx
+++ b/Public_data/Exports_CG_part1/actor_roles_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="617">
   <si>
     <t>Who</t>
   </si>
@@ -31,67 +31,112 @@
     <t>Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
     <t>Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
   </si>
   <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Handelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
     <t>Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
   </si>
   <si>
-    <t>Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+    <t>Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar</t>
   </si>
   <si>
     <t>Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
   </si>
   <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar, Handelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Handelaar, Handelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Handelaar, Handelaar, Handelaar, Handelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
     <t>Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
   </si>
   <si>
-    <t>Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar, Handelaar</t>
-  </si>
-  <si>
-    <t>Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger</t>
-  </si>
-  <si>
-    <t>Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger</t>
-  </si>
-  <si>
-    <t>Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+    <t>Afzender, Afzender, Afzender, Handelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Afzender, Afzender, Bemiddelaar, Bemiddelaar</t>
   </si>
   <si>
-    <t>Afzender, Afzender, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger</t>
-  </si>
-  <si>
-    <t>Afzender, Afzender, Bemiddelaar, Bemiddelaar, Ontvanger, Verwerker</t>
-  </si>
-  <si>
     <t>Afzender, Afzender, Handelaar, Handelaar</t>
   </si>
   <si>
-    <t>Afzender, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar</t>
+    <t>Afzender, Afzender, Inzamelaar, Inzamelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Afzender, Afzender, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Afzender, Bemiddelaar</t>
   </si>
   <si>
-    <t>Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
-  </si>
-  <si>
-    <t>Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
-  </si>
-  <si>
-    <t>Afzender, Verwerker, Verwerker</t>
+    <t>Afzender, Bemiddelaar, Ontvanger</t>
+  </si>
+  <si>
+    <t>Afzender, Handelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Afzender, Inzamelaar, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Afzender, Ontvanger, Verwerker</t>
   </si>
   <si>
     <t>Herkomst</t>
   </si>
   <si>
-    <t>Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+    <t>Herkomst, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger</t>
   </si>
   <si>
     <t>Herkomst, Herkomst</t>
@@ -109,7 +154,40 @@
     <t>Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
   </si>
   <si>
-    <t>Herkomst, Ontvanger, Verwerker</t>
+    <t>Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Herkomst, Herkomst, Herkomst, Herkomst, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Herkomst, Herkomst, Herkomst, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Herkomst, Herkomst, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Herkomst, Herkomst, Verwerker</t>
+  </si>
+  <si>
+    <t>Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Herkomst, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Herkomst, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Herkomst, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Herkomst, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Inzamelaar</t>
@@ -127,13 +205,61 @@
     <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
     <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
     <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
-    <t>Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Inzamelaar, Ontvanger, Verwerker</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Ontvanger</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Inzamelaar, Ontvanger, Verwerker</t>
   </si>
   <si>
     <t>Ontdoener</t>
@@ -142,22 +268,124 @@
     <t>Ontdoener, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Afzender, Afzender, Bemiddelaar, Bemiddelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Afzender, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Handelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Afzender, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Inzamelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Inzamelaar, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Herkomst</t>
   </si>
   <si>
     <t>Ontdoener, Herkomst, Afzender</t>
   </si>
   <si>
-    <t>Ontdoener, Herkomst, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
-  </si>
-  <si>
-    <t>Ontdoener, Herkomst, Afzender, Bemiddelaar, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+    <t>Ontdoener, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar, Handelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Afzender, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Inzamelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Inzamelaar, Handelaar, Handelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Bemiddelaar, Ontvanger, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Bemiddelaar, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Handelaar</t>
   </si>
   <si>
     <t>Ontdoener, Herkomst, Afzender, Inzamelaar</t>
@@ -166,45 +394,126 @@
     <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Bemiddelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Bemiddelaar, Ontvanger</t>
   </si>
   <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Bemiddelaar, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Bemiddelaar, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Handelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
   </si>
   <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Herkomst, Afzender, Inzamelaar, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
-    <t>Ontdoener, Herkomst, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+    <t>Ontdoener, Herkomst, Afzender, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Ontdoener, Herkomst, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
+    <t>Ontdoener, Herkomst, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Herkomst, Afzender, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Ontdoener, Herkomst, Afzender, Ontvanger, Verwerker</t>
   </si>
   <si>
-    <t>Ontdoener, Herkomst, Afzender, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
-  </si>
-  <si>
-    <t>Ontdoener, Herkomst, Afzender, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+    <t>Ontdoener, Herkomst, Afzender, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Afzender, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Ontdoener, Herkomst, Herkomst, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Herkomst, Herkomst, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Herkomst, Afzender, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Herkomst, Afzender, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Herkomst, Herkomst, Herkomst</t>
   </si>
   <si>
+    <t>Ontdoener, Herkomst, Herkomst, Herkomst, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Inzamelaar, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Handelaar, Handelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Herkomst, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Herkomst, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Inzamelaar, Ontvanger, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener</t>
   </si>
   <si>
@@ -214,9 +523,36 @@
     <t>Ontdoener, Ontdoener, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Afzender, Afzender, Bemiddelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Afzender, Afzender, Ontvanger</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Herkomst</t>
   </si>
   <si>
@@ -226,6 +562,21 @@
     <t>Ontdoener, Ontdoener, Herkomst, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Herkomst, Herkomst</t>
   </si>
   <si>
@@ -235,33 +586,150 @@
     <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Handelaar, Handelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Verwerker</t>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Ontvanger, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Ontvanger, Verwerker</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Herkomst, Herkomst, Inzamelaar, Inzamelaar, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener</t>
   </si>
   <si>
@@ -274,27 +742,72 @@
     <t>Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender</t>
-  </si>
-  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst</t>
   </si>
   <si>
@@ -307,22 +820,79 @@
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
-  </si>
-  <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker</t>
@@ -331,7 +901,46 @@
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener</t>
@@ -343,27 +952,90 @@
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger</t>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst</t>
   </si>
   <si>
@@ -376,48 +1048,231 @@
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar, Handelaar, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
-  </si>
-  <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger</t>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Ontvanger, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
   </si>
   <si>
@@ -427,109 +1282,514 @@
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Ontvanger, Verwerker</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
-  </si>
-  <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
-  </si>
-  <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Handelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar, Handelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Handelaar, Handelaar, Handelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Handelaar, Handelaar, Handelaar, Handelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Handelaar, Handelaar, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Handelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar, Handelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Handelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Verwerker</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Afzender, Verwerker, Verwerker</t>
   </si>
   <si>
-    <t>Ontdoener, Ontvanger, Ontvanger, Verwerker, Verwerker</t>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Afzender, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Afzender, Afzender, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Bemiddelaar, Bemiddelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Inzamelaar, Inzamelaar</t>
+  </si>
+  <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar, Inzamelaar</t>
   </si>
   <si>
     <t>Ontvanger</t>
@@ -559,6 +1819,12 @@
     <t>Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
+    <t>Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
@@ -569,6 +1835,12 @@
   </si>
   <si>
     <t>Ontvanger, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontvanger, Verwerker, Verwerker</t>
+  </si>
+  <si>
+    <t>Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
@@ -950,7 +2222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -977,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -985,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -993,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1001,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1009,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1025,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1033,7 +2305,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1041,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1049,7 +2321,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1065,7 +2337,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1081,7 +2353,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1113,7 +2385,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1121,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1145,7 +2417,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1153,7 +2425,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>343</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1161,7 +2433,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1169,7 +2441,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1177,7 +2449,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1185,7 +2457,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1193,7 +2465,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1201,7 +2473,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1209,7 +2481,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1217,7 +2489,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1225,7 +2497,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1233,7 +2505,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1241,7 +2513,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1249,7 +2521,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1265,7 +2537,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1273,7 +2545,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1281,7 +2553,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1289,7 +2561,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>139</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1297,7 +2569,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1305,7 +2577,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1313,7 +2585,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>79</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1321,7 +2593,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>938</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1345,7 +2617,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1417,7 +2689,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1425,7 +2697,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1433,7 +2705,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1441,7 +2713,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1449,7 +2721,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1457,7 +2729,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1465,7 +2737,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1473,7 +2745,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1481,7 +2753,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1497,7 +2769,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1505,7 +2777,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1513,7 +2785,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1521,7 +2793,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1529,7 +2801,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1537,7 +2809,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1561,7 +2833,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1569,7 +2841,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1577,7 +2849,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1601,7 +2873,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1609,7 +2881,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1617,7 +2889,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1625,7 +2897,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1633,7 +2905,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1641,7 +2913,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1665,7 +2937,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1689,7 +2961,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1705,7 +2977,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1713,7 +2985,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1729,7 +3001,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1753,7 +3025,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1761,7 +3033,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1769,7 +3041,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1785,7 +3057,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1825,7 +3097,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1881,7 +3153,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1889,7 +3161,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1897,7 +3169,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1913,7 +3185,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1929,7 +3201,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1953,7 +3225,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1961,7 +3233,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1985,7 +3257,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2001,7 +3273,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2009,7 +3281,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2017,7 +3289,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2025,7 +3297,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2033,7 +3305,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2049,7 +3321,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2065,7 +3337,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2073,7 +3345,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2129,7 +3401,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2137,7 +3409,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2161,7 +3433,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2185,7 +3457,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2193,7 +3465,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2209,7 +3481,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2225,7 +3497,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2233,7 +3505,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2241,7 +3513,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2289,7 +3561,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2297,7 +3569,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2305,7 +3577,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2337,7 +3609,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2345,7 +3617,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2353,7 +3625,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2369,7 +3641,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2377,7 +3649,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2385,7 +3657,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2393,7 +3665,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2401,7 +3673,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2409,7 +3681,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2417,7 +3689,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2425,7 +3697,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2441,7 +3713,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2457,7 +3729,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2465,7 +3737,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2473,7 +3745,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>5</v>
+        <v>734</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2481,7 +3753,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2489,7 +3761,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2497,7 +3769,3399 @@
         <v>192</v>
       </c>
       <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235">
         <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B508">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B511">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B512">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B518">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B519">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B521">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B522">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B525">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B528">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B529">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B532">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B549">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B550">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B582">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B593">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B594">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B595">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B596">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B597">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B598">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B599">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B600">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B601">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B602">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B604">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B606">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B607">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B608">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B610">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B612">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B613">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B614">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B615">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B617">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Public_data/Exports_CG_part1/actor_roles_summary.xlsx
+++ b/Public_data/Exports_CG_part1/actor_roles_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>Who</t>
   </si>
@@ -40,12 +40,18 @@
     <t>Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
+    <t>Herkomst, Herkomst, Herkomst, Herkomst, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Herkomst, Herkomst, Herkomst, Herkomst, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
     <t>Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger</t>
   </si>
   <si>
+    <t>Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>Herkomst, Ontvanger</t>
   </si>
   <si>
+    <t>Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
+  </si>
+  <si>
     <t>Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
@@ -88,15 +97,15 @@
     <t>Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst</t>
   </si>
   <si>
+    <t>Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
     <t>Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
   </si>
   <si>
     <t>Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
   </si>
   <si>
-    <t>Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Verwerker, Verwerker</t>
-  </si>
-  <si>
     <t>Ontdoener, Herkomst, Herkomst, Ontvanger</t>
   </si>
   <si>
@@ -250,6 +259,9 @@
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
@@ -442,6 +454,9 @@
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
   </si>
   <si>
+    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
+  </si>
+  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger</t>
   </si>
   <si>
@@ -550,13 +565,7 @@
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger</t>
   </si>
   <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
-  </si>
-  <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
-  </si>
-  <si>
-    <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Ontvanger</t>
   </si>
   <si>
     <t>Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Ontdoener, Herkomst, Herkomst, Herkomst, Herkomst, Ontvanger, Ontvanger, Ontvanger, Ontvanger, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker, Verwerker</t>
@@ -1112,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B247"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1131,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1866</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1139,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1147,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1155,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1163,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1171,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1179,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1275,7 +1284,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1283,7 +1292,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1291,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1299,7 +1308,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1307,7 +1316,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1315,7 +1324,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1323,7 +1332,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1331,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1347,7 +1356,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1355,7 +1364,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1379,7 +1388,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1387,7 +1396,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1403,7 +1412,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1411,7 +1420,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1419,7 +1428,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1443,7 +1452,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1451,7 +1460,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1459,7 +1468,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1467,7 +1476,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1475,7 +1484,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1483,7 +1492,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1523,7 +1532,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1531,7 +1540,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1539,7 +1548,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1547,7 +1556,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1555,7 +1564,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1563,7 +1572,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1571,7 +1580,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1579,7 +1588,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1587,7 +1596,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1595,7 +1604,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1603,7 +1612,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1611,7 +1620,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1619,7 +1628,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1627,7 +1636,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1651,7 +1660,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1659,7 +1668,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1675,7 +1684,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1691,7 +1700,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1699,7 +1708,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1707,7 +1716,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1715,7 +1724,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1723,7 +1732,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>987</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1731,7 +1740,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1739,7 +1748,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1747,7 +1756,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>978</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1755,7 +1764,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1763,7 +1772,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1771,7 +1780,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1779,7 +1788,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1787,7 +1796,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1811,7 +1820,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1819,7 +1828,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1827,7 +1836,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1835,7 +1844,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1859,7 +1868,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1867,7 +1876,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1875,7 +1884,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1883,7 +1892,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1891,7 +1900,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>678</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1899,7 +1908,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1907,7 +1916,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1915,7 +1924,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1923,7 +1932,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>664</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1931,7 +1940,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1939,7 +1948,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1971,7 +1980,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2043,7 +2052,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2075,7 +2084,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2083,7 +2092,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2091,7 +2100,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2099,7 +2108,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2107,7 +2116,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2115,7 +2124,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>574</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2123,7 +2132,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2131,7 +2140,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2139,7 +2148,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2147,7 +2156,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>565</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2155,7 +2164,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2163,7 +2172,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2171,7 +2180,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2195,7 +2204,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2203,7 +2212,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2211,7 +2220,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2227,7 +2236,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2235,7 +2244,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2259,7 +2268,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2267,7 +2276,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2275,7 +2284,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2283,7 +2292,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2291,7 +2300,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2299,7 +2308,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2307,7 +2316,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2315,7 +2324,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2323,7 +2332,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1293</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2331,7 +2340,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2339,7 +2348,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2347,7 +2356,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2355,7 +2364,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2363,7 +2372,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>14</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2371,7 +2380,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2403,7 +2412,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2419,7 +2428,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2427,7 +2436,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2451,7 +2460,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2459,7 +2468,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2467,7 +2476,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2491,7 +2500,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2507,7 +2516,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2515,7 +2524,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2531,7 +2540,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2539,7 +2548,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2555,7 +2564,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2571,7 +2580,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2659,7 +2668,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2667,7 +2676,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2675,7 +2684,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2683,7 +2692,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2691,7 +2700,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2699,7 +2708,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2707,7 +2716,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2715,7 +2724,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2723,7 +2732,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2731,7 +2740,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2739,7 +2748,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2747,7 +2756,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2755,7 +2764,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2763,7 +2772,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2771,7 +2780,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2779,7 +2788,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2795,7 +2804,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2803,7 +2812,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2811,7 +2820,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2819,7 +2828,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2827,7 +2836,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2835,7 +2844,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2843,7 +2852,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2851,7 +2860,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2859,7 +2868,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2867,7 +2876,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2875,7 +2884,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2883,7 +2892,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2891,7 +2900,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2899,7 +2908,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2915,7 +2924,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2923,7 +2932,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2939,7 +2948,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2947,7 +2956,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2963,7 +2972,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2971,7 +2980,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2979,7 +2988,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2987,7 +2996,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2995,7 +3004,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3003,7 +3012,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3011,7 +3020,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3019,7 +3028,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3027,7 +3036,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3035,7 +3044,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3043,7 +3052,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3051,7 +3060,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3067,7 +3076,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3075,7 +3084,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3091,6 +3100,30 @@
         <v>246</v>
       </c>
       <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250">
         <v>1</v>
       </c>
     </row>
